--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990" tabRatio="460"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990" tabRatio="460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="To Do" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="200">
   <si>
     <t>Softline Real Estate Website</t>
   </si>
@@ -578,6 +578,84 @@
   </si>
   <si>
     <t>Karen</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>install simple pagination</t>
+  </si>
+  <si>
+    <t>Single Property Page</t>
+  </si>
+  <si>
+    <t>- Featured Picture top left</t>
+  </si>
+  <si>
+    <t>- Details overview start below feature pic</t>
+  </si>
+  <si>
+    <t>- Property Name top right</t>
+  </si>
+  <si>
+    <t>- Overview top right</t>
+  </si>
+  <si>
+    <t>- Picture Gallery (10 pic max)</t>
+  </si>
+  <si>
+    <t>- Map</t>
+  </si>
+  <si>
+    <t>- FB comment</t>
+  </si>
+  <si>
+    <t>- Send mail to Agent via pop up form</t>
+  </si>
+  <si>
+    <t>-- Fields: Name, Email, Subject, Text</t>
+  </si>
+  <si>
+    <t>- add LiveZilla mobile features ( go to website)</t>
+  </si>
+  <si>
+    <t>- to be located in right-bottom</t>
+  </si>
+  <si>
+    <t>- Career Page - add Full widthe Slider Photo</t>
+  </si>
+  <si>
+    <t>- Contact Page - add Subject field</t>
+  </si>
+  <si>
+    <t>- with a msg from website originated</t>
+  </si>
+  <si>
+    <t>- sidebar : Vertical Filter then Agent below</t>
+  </si>
+  <si>
+    <t>--remove Purpose field in filter</t>
+  </si>
+  <si>
+    <t>Residential/ Commerical Page</t>
+  </si>
+  <si>
+    <t>- Property list page</t>
+  </si>
+  <si>
+    <t>- no footer</t>
+  </si>
+  <si>
+    <t>Home - sidebar</t>
+  </si>
+  <si>
+    <t>-- Agent up, then Recent Down</t>
+  </si>
+  <si>
+    <t>-- add SMS using Voicetrading.com</t>
+  </si>
+  <si>
+    <t>-- username: goldexvoip: pass: 123123</t>
   </si>
 </sst>
 </file>
@@ -680,7 +758,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -710,6 +788,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1005,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1310,6 +1389,137 @@
       </c>
       <c r="B59" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="15" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1929,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.140625" defaultRowHeight="15.75"/>
@@ -1872,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
